--- a/Figures.out/Typology data description.xlsx
+++ b/Figures.out/Typology data description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawkj\Documents\Github\MFL\Survey\GML.survey\Cocoa-clusters\Figures.out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C67287-D17E-4E8A-B410-93DCADEDEFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3E7C04-8D10-4AAD-A1C5-BADFEE95EABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{96454294-97A5-4CBC-8A6A-A559C31DE565}"/>
   </bookViews>
@@ -551,24 +551,6 @@
     <t>CO2 removals from litter from annual crops in Mg CO2eq/ha/yr</t>
   </si>
   <si>
-    <t>Fraction VOP attributable to cocoa (attributed based on fraction of total revenue)</t>
-  </si>
-  <si>
-    <t>Fraction VOP attributable to annual crops(attributed based on fraction of total revenue)</t>
-  </si>
-  <si>
-    <t>Fraction VOP attributable to other fruit trees (attributed based on fraction of total revenue)</t>
-  </si>
-  <si>
-    <t>Fraction VOP attributable to other agro-commodities (attributed based on fraction of total revenue)</t>
-  </si>
-  <si>
-    <t>Fraction VOP attributable to fuelwood (attributed based on fraction of total revenue)</t>
-  </si>
-  <si>
-    <t>Fraction VOP attributable to hardwood lumber (attributed based on fraction of total revenue)</t>
-  </si>
-  <si>
     <t>Mean monthly rainfall (mm)</t>
   </si>
   <si>
@@ -582,6 +564,24 @@
   </si>
   <si>
     <t>Variable name (refer to 1st sheet)</t>
+  </si>
+  <si>
+    <t>VOP (1000 USD/ha/yr) attributable to cocoa (attributed based on fraction of total revenue)</t>
+  </si>
+  <si>
+    <t>VOP (1000 USD/ha/yr)attributable to annual crops(attributed based on fraction of total revenue)</t>
+  </si>
+  <si>
+    <t>VOP (1000 USD/ha/yr) attributable to other fruit trees (attributed based on fraction of total revenue)</t>
+  </si>
+  <si>
+    <t>VOP (1000 USD/ha/yr) attributable to other agro-commodities (attributed based on fraction of total revenue)</t>
+  </si>
+  <si>
+    <t>VOP (1000 USD/ha/yr) attributable to fuelwood (attributed based on fraction of total revenue)</t>
+  </si>
+  <si>
+    <t>VOP (1000 USD/ha/yr) attributable to hardwood lumber (attributed based on fraction of total revenue)</t>
   </si>
 </sst>
 </file>
@@ -945,7 +945,7 @@
   <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -956,7 +956,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -1432,7 +1432,7 @@
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1568,7 +1568,7 @@
         <v>67</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1576,7 +1576,7 @@
         <v>61</v>
       </c>
       <c r="B78" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1584,7 +1584,7 @@
         <v>62</v>
       </c>
       <c r="B79" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1592,7 +1592,7 @@
         <v>63</v>
       </c>
       <c r="B80" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1600,7 +1600,7 @@
         <v>64</v>
       </c>
       <c r="B81" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1608,7 +1608,7 @@
         <v>65</v>
       </c>
       <c r="B82" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1616,7 +1616,7 @@
         <v>66</v>
       </c>
       <c r="B83" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1624,7 +1624,7 @@
         <v>68</v>
       </c>
       <c r="B84" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1664,7 +1664,7 @@
         <v>78</v>
       </c>
       <c r="B89" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
